--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <t xml:space="preserve">Nhà máy dược phẩm / </t>
@@ -252,6 +252,23 @@
         <family val="2"/>
       </rPr>
       <t>Document No.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày rà soát
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reviewer date</t>
     </r>
   </si>
 </sst>
@@ -259,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +345,18 @@
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -369,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -383,31 +412,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,63 +806,67 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="4" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+    <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,63 +882,69 @@
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="2"/>
+    <row r="10" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D9:H9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <t xml:space="preserve">Nhà máy dược phẩm / </t>
@@ -270,6 +270,9 @@
       </rPr>
       <t>Reviewer date</t>
     </r>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,6 +415,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -434,12 +446,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,61 +818,61 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+    <row r="1" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -897,41 +903,45 @@
       <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K6" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+    <row r="10" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="2"/>
     </row>
   </sheetData>

--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <t xml:space="preserve">Nhà máy dược phẩm / </t>
@@ -273,6 +273,23 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trạng thái
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Status</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -401,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -422,6 +439,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,63 +836,64 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -906,8 +927,11 @@
       <c r="K6" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="L6" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -919,29 +943,30 @@
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+    <row r="10" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="2"/>
     </row>
   </sheetData>

--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <t xml:space="preserve">Nhà máy dược phẩm / </t>
@@ -290,12 +290,32 @@
       </rPr>
       <t>Status</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số ấn bản
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Version</t>
+    </r>
+  </si>
+  <si>
+    <t>Hiện hành</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,6 +459,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,61 +862,61 @@
     <col min="12" max="13" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+    <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
-    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -930,8 +953,14 @@
       <c r="L6" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="M6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -944,29 +973,31 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+    <row r="10" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="2"/>
     </row>
   </sheetData>
